--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N2">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O2">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P2">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q2">
-        <v>1962.423028283977</v>
+        <v>3121.955947406032</v>
       </c>
       <c r="R2">
-        <v>1962.423028283977</v>
+        <v>28097.60352665428</v>
       </c>
       <c r="S2">
-        <v>0.009351286335603325</v>
+        <v>0.01031247781035202</v>
       </c>
       <c r="T2">
-        <v>0.009351286335603325</v>
+        <v>0.01063311162342424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N3">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P3">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q3">
-        <v>7.778758801131514</v>
+        <v>14.188506700286</v>
       </c>
       <c r="R3">
-        <v>7.778758801131514</v>
+        <v>127.696560302574</v>
       </c>
       <c r="S3">
-        <v>3.706713579924879E-05</v>
+        <v>4.686762496770765E-05</v>
       </c>
       <c r="T3">
-        <v>3.706713579924879E-05</v>
+        <v>4.83248252234939E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N4">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O4">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P4">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q4">
-        <v>443.9179473418187</v>
+        <v>677.8906206153321</v>
       </c>
       <c r="R4">
-        <v>443.9179473418187</v>
+        <v>6101.015585537988</v>
       </c>
       <c r="S4">
-        <v>0.002115346067222115</v>
+        <v>0.00223921544721021</v>
       </c>
       <c r="T4">
-        <v>0.002115346067222115</v>
+        <v>0.002308836754555813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N5">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O5">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P5">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q5">
-        <v>430.3380749797197</v>
+        <v>653.8471529131893</v>
       </c>
       <c r="R5">
-        <v>430.3380749797197</v>
+        <v>5884.624376218704</v>
       </c>
       <c r="S5">
-        <v>0.002050635618440856</v>
+        <v>0.002159794811128436</v>
       </c>
       <c r="T5">
-        <v>0.002050635618440856</v>
+        <v>0.002226946785511407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N6">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O6">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P6">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q6">
-        <v>89.21262029536081</v>
+        <v>134.207769330186</v>
       </c>
       <c r="R6">
-        <v>89.21262029536081</v>
+        <v>805.246615981116</v>
       </c>
       <c r="S6">
-        <v>0.0004251136197993356</v>
+        <v>0.0004433165190381159</v>
       </c>
       <c r="T6">
-        <v>0.0004251136197993356</v>
+        <v>0.0003047333607647141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N7">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O7">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P7">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q7">
-        <v>26045.41032150299</v>
+        <v>30669.00371645778</v>
       </c>
       <c r="R7">
-        <v>26045.41032150299</v>
+        <v>276021.03344812</v>
       </c>
       <c r="S7">
-        <v>0.1241109007254312</v>
+        <v>0.1013061765187172</v>
       </c>
       <c r="T7">
-        <v>0.1241109007254312</v>
+        <v>0.1044559709970488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N8">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P8">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q8">
-        <v>103.2402096018184</v>
+        <v>139.382929180539</v>
       </c>
       <c r="R8">
-        <v>103.2402096018184</v>
+        <v>1254.446362624851</v>
       </c>
       <c r="S8">
-        <v>0.0004919575175279702</v>
+        <v>0.0004604111616342529</v>
       </c>
       <c r="T8">
-        <v>0.0004919575175279702</v>
+        <v>0.0004747261874748527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N9">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O9">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P9">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q9">
-        <v>5891.708831865539</v>
+        <v>6659.360450065819</v>
       </c>
       <c r="R9">
-        <v>5891.708831865539</v>
+        <v>59934.24405059237</v>
       </c>
       <c r="S9">
-        <v>0.0280750151719097</v>
+        <v>0.02199726966983625</v>
       </c>
       <c r="T9">
-        <v>0.0280750151719097</v>
+        <v>0.02268120505191653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N10">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O10">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P10">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q10">
-        <v>5711.475853202529</v>
+        <v>6423.165829534345</v>
       </c>
       <c r="R10">
-        <v>5711.475853202529</v>
+        <v>57808.4924658091</v>
       </c>
       <c r="S10">
-        <v>0.02721617374663847</v>
+        <v>0.02121706910833276</v>
       </c>
       <c r="T10">
-        <v>0.02721617374663847</v>
+        <v>0.02187674662672631</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N11">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O11">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P11">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q11">
-        <v>1184.035892343227</v>
+        <v>1318.410203636889</v>
       </c>
       <c r="R11">
-        <v>1184.035892343227</v>
+        <v>7910.461221821334</v>
       </c>
       <c r="S11">
-        <v>0.005642136532924375</v>
+        <v>0.004354986488916925</v>
       </c>
       <c r="T11">
-        <v>0.005642136532924375</v>
+        <v>0.002993593994043053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N12">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O12">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P12">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q12">
-        <v>28725.76638966863</v>
+        <v>35327.32445949434</v>
       </c>
       <c r="R12">
-        <v>28725.76638966863</v>
+        <v>317945.920135449</v>
       </c>
       <c r="S12">
-        <v>0.1368832626033421</v>
+        <v>0.1166935907248599</v>
       </c>
       <c r="T12">
-        <v>0.1368832626033421</v>
+        <v>0.1203218080789512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N13">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P13">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q13">
-        <v>113.8647503124121</v>
+        <v>160.5538285103557</v>
       </c>
       <c r="R13">
-        <v>113.8647503124121</v>
+        <v>1444.984456593201</v>
       </c>
       <c r="S13">
-        <v>0.0005425852980508654</v>
+        <v>0.0005303430995737783</v>
       </c>
       <c r="T13">
-        <v>0.0005425852980508654</v>
+        <v>0.0005468324373818251</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N14">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O14">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P14">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q14">
-        <v>6498.029766126964</v>
+        <v>7670.851961387785</v>
       </c>
       <c r="R14">
-        <v>6498.029766126964</v>
+        <v>69037.66765249007</v>
       </c>
       <c r="S14">
-        <v>0.0309642396591025</v>
+        <v>0.02533843909746194</v>
       </c>
       <c r="T14">
-        <v>0.0309642396591025</v>
+        <v>0.02612625755336804</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N15">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O15">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P15">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q15">
-        <v>6299.248853218352</v>
+        <v>7398.781695517855</v>
       </c>
       <c r="R15">
-        <v>6299.248853218352</v>
+        <v>66589.0352596607</v>
       </c>
       <c r="S15">
-        <v>0.03001701410789883</v>
+        <v>0.02443973372592348</v>
       </c>
       <c r="T15">
-        <v>0.03001701410789883</v>
+        <v>0.0251996097866648</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N16">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O16">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P16">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q16">
-        <v>1305.886066703811</v>
+        <v>1518.663777447539</v>
       </c>
       <c r="R16">
-        <v>1305.886066703811</v>
+        <v>9111.982664685234</v>
       </c>
       <c r="S16">
-        <v>0.006222773762546266</v>
+        <v>0.00501646620584947</v>
       </c>
       <c r="T16">
-        <v>0.006222773762546266</v>
+        <v>0.003448291548864408</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N17">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O17">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P17">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q17">
-        <v>73739.98674047523</v>
+        <v>123538.1483165429</v>
       </c>
       <c r="R17">
-        <v>73739.98674047523</v>
+        <v>1111843.334848886</v>
       </c>
       <c r="S17">
-        <v>0.3513838354193994</v>
+        <v>0.4080725143815218</v>
       </c>
       <c r="T17">
-        <v>0.3513838354193994</v>
+        <v>0.4207602358682795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N18">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O18">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P18">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q18">
-        <v>292.2945575880125</v>
+        <v>561.4498970065792</v>
       </c>
       <c r="R18">
-        <v>292.2945575880125</v>
+        <v>5053.049073059214</v>
       </c>
       <c r="S18">
-        <v>0.001392834298695596</v>
+        <v>0.001854587220974568</v>
       </c>
       <c r="T18">
-        <v>0.001392834298695596</v>
+        <v>0.001912249732668815</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N19">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O19">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P19">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q19">
-        <v>16680.65604563817</v>
+        <v>26824.64244940819</v>
       </c>
       <c r="R19">
-        <v>16680.65604563817</v>
+        <v>241421.7820446737</v>
       </c>
       <c r="S19">
-        <v>0.07948622121748918</v>
+        <v>0.08860744183786247</v>
       </c>
       <c r="T19">
-        <v>0.07948622121748918</v>
+        <v>0.09136240940875309</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N20">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O20">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P20">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q20">
-        <v>16170.37890687356</v>
+        <v>25873.2243227369</v>
       </c>
       <c r="R20">
-        <v>16170.37890687356</v>
+        <v>232859.0189046321</v>
       </c>
       <c r="S20">
-        <v>0.07705466208557618</v>
+        <v>0.08546470744796295</v>
       </c>
       <c r="T20">
-        <v>0.07705466208557618</v>
+        <v>0.08812196165360442</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N21">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O21">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P21">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q21">
-        <v>3352.252466898281</v>
+        <v>5310.702518567145</v>
       </c>
       <c r="R21">
-        <v>3352.252466898281</v>
+        <v>31864.21511140287</v>
       </c>
       <c r="S21">
-        <v>0.01597406483484363</v>
+        <v>0.01754236856724664</v>
       </c>
       <c r="T21">
-        <v>0.01597406483484363</v>
+        <v>0.0120585286126248</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N22">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O22">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P22">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q22">
-        <v>9905.555760045432</v>
+        <v>12712.81271449475</v>
       </c>
       <c r="R22">
-        <v>9905.555760045432</v>
+        <v>76276.87628696847</v>
       </c>
       <c r="S22">
-        <v>0.04720169244368726</v>
+        <v>0.04199309703082674</v>
       </c>
       <c r="T22">
-        <v>0.04720169244368726</v>
+        <v>0.02886582619318618</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N23">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O23">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P23">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q23">
-        <v>39.26417899607028</v>
+        <v>57.77654503067549</v>
       </c>
       <c r="R23">
-        <v>39.26417899607028</v>
+        <v>346.659270184053</v>
       </c>
       <c r="S23">
-        <v>0.0001871006277610307</v>
+        <v>0.0001908480928703364</v>
       </c>
       <c r="T23">
-        <v>0.0001871006277610307</v>
+        <v>0.0001311879396285558</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N24">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O24">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P24">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q24">
-        <v>2240.726854965841</v>
+        <v>2760.415792527681</v>
       </c>
       <c r="R24">
-        <v>2240.726854965841</v>
+        <v>16562.49475516608</v>
       </c>
       <c r="S24">
-        <v>0.01067745237324504</v>
+        <v>0.009118234557870494</v>
       </c>
       <c r="T24">
-        <v>0.01067745237324504</v>
+        <v>0.00626782477469992</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N25">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O25">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P25">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q25">
-        <v>2172.180888597571</v>
+        <v>2662.509189406548</v>
       </c>
       <c r="R25">
-        <v>2172.180888597571</v>
+        <v>15975.05513643929</v>
       </c>
       <c r="S25">
-        <v>0.01035081894639373</v>
+        <v>0.008794828433894742</v>
       </c>
       <c r="T25">
-        <v>0.01035081894639373</v>
+        <v>0.006045517166436518</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N26">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O26">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P26">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q26">
-        <v>450.3109533973423</v>
+        <v>546.5029824467505</v>
       </c>
       <c r="R26">
-        <v>450.3109533973423</v>
+        <v>2186.011929787002</v>
       </c>
       <c r="S26">
-        <v>0.002145809850671867</v>
+        <v>0.001805214415166871</v>
       </c>
       <c r="T26">
-        <v>0.002145809850671867</v>
+        <v>0.0008272630381986893</v>
       </c>
     </row>
   </sheetData>
